--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H2">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I2">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J2">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N2">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O2">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P2">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q2">
-        <v>184.7322102365805</v>
+        <v>391.5544887942772</v>
       </c>
       <c r="R2">
-        <v>738.928840946322</v>
+        <v>1566.217955177109</v>
       </c>
       <c r="S2">
-        <v>0.04282793315427706</v>
+        <v>0.1011423599178023</v>
       </c>
       <c r="T2">
-        <v>0.02766503044701818</v>
+        <v>0.07983146918336517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H3">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I3">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J3">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>2.735872</v>
       </c>
       <c r="O3">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P3">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q3">
-        <v>1.389849422762667</v>
+        <v>2.583414164864</v>
       </c>
       <c r="R3">
-        <v>8.339096536575999</v>
+        <v>15.500484989184</v>
       </c>
       <c r="S3">
-        <v>0.0003222198126485853</v>
+        <v>0.0006673211845534645</v>
       </c>
       <c r="T3">
-        <v>0.0003122105225850262</v>
+        <v>0.0007900729816376852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H4">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I4">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J4">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N4">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O4">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P4">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q4">
-        <v>1.072944864541333</v>
+        <v>0.8500774529780001</v>
       </c>
       <c r="R4">
-        <v>6.437669187248</v>
+        <v>5.100464717868</v>
       </c>
       <c r="S4">
-        <v>0.0002487493159852949</v>
+        <v>0.0002195833330167308</v>
       </c>
       <c r="T4">
-        <v>0.0002410222800952823</v>
+        <v>0.0002599750504707224</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H5">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I5">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J5">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N5">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O5">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P5">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q5">
-        <v>66.744351697517</v>
+        <v>223.2949313993483</v>
       </c>
       <c r="R5">
-        <v>266.977406790068</v>
+        <v>893.179725597393</v>
       </c>
       <c r="S5">
-        <v>0.01547387231098465</v>
+        <v>0.05767926806038942</v>
       </c>
       <c r="T5">
-        <v>0.009995465974848487</v>
+        <v>0.04552613479084509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H6">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I6">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J6">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N6">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O6">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P6">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q6">
-        <v>134.5209536372173</v>
+        <v>4.702369919962</v>
       </c>
       <c r="R6">
-        <v>807.125721823304</v>
+        <v>28.214219519772</v>
       </c>
       <c r="S6">
-        <v>0.03118705938096068</v>
+        <v>0.001214668212273589</v>
       </c>
       <c r="T6">
-        <v>0.03021827871844468</v>
+        <v>0.001438102908142614</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.524029</v>
+        <v>2.8328235</v>
       </c>
       <c r="H7">
-        <v>3.048058</v>
+        <v>5.665647</v>
       </c>
       <c r="I7">
-        <v>0.09030204154573296</v>
+        <v>0.1613214142302211</v>
       </c>
       <c r="J7">
-        <v>0.06866669168778029</v>
+        <v>0.1283172186594826</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N7">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O7">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P7">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q7">
-        <v>1.044727975616</v>
+        <v>1.5416121616805</v>
       </c>
       <c r="R7">
-        <v>6.268367853696</v>
+        <v>9.249672970083001</v>
       </c>
       <c r="S7">
-        <v>0.0002422075708766958</v>
+        <v>0.0003982135221855981</v>
       </c>
       <c r="T7">
-        <v>0.0002346837447886368</v>
+        <v>0.0004714637450212901</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>25.508625</v>
       </c>
       <c r="I8">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J8">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N8">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O8">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P8">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q8">
-        <v>1030.659450781688</v>
+        <v>1175.272258898813</v>
       </c>
       <c r="R8">
-        <v>6183.956704690125</v>
+        <v>7051.633553392876</v>
       </c>
       <c r="S8">
-        <v>0.2389459532063849</v>
+        <v>0.3035843368236967</v>
       </c>
       <c r="T8">
-        <v>0.2315234445297856</v>
+        <v>0.3594277953775656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>25.508625</v>
       </c>
       <c r="I9">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J9">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>2.735872</v>
       </c>
       <c r="O9">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P9">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q9">
         <v>7.754259210666667</v>
@@ -1013,10 +1013,10 @@
         <v>69.788332896</v>
       </c>
       <c r="S9">
-        <v>0.001797731401091672</v>
+        <v>0.002003001110768122</v>
       </c>
       <c r="T9">
-        <v>0.002612831232763767</v>
+        <v>0.003557171036463725</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>25.508625</v>
       </c>
       <c r="I10">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J10">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N10">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O10">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P10">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q10">
-        <v>5.986182720333335</v>
+        <v>2.551554067166667</v>
       </c>
       <c r="R10">
-        <v>53.875644483</v>
+        <v>22.9639866045</v>
       </c>
       <c r="S10">
-        <v>0.001387824208173509</v>
+        <v>0.0006590914092334504</v>
       </c>
       <c r="T10">
-        <v>0.00201707019997504</v>
+        <v>0.001170494044513139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>25.508625</v>
       </c>
       <c r="I11">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J11">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N11">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O11">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P11">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q11">
-        <v>372.3806301848751</v>
+        <v>670.2319752085626</v>
       </c>
       <c r="R11">
-        <v>2234.28378110925</v>
+        <v>4021.391851251376</v>
       </c>
       <c r="S11">
-        <v>0.08633195433043832</v>
+        <v>0.173127484436988</v>
       </c>
       <c r="T11">
-        <v>0.08365017767137944</v>
+        <v>0.2049737832376639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>25.508625</v>
       </c>
       <c r="I12">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J12">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N12">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O12">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P12">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q12">
-        <v>750.5203993218335</v>
+        <v>14.11442104783334</v>
       </c>
       <c r="R12">
-        <v>6754.6835938965</v>
+        <v>127.0297894305</v>
       </c>
       <c r="S12">
-        <v>0.1739990955118873</v>
+        <v>0.003645893214115104</v>
       </c>
       <c r="T12">
-        <v>0.2528910998328397</v>
+        <v>0.006474817050059664</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>25.508625</v>
       </c>
       <c r="I13">
-        <v>0.5038138851085998</v>
+        <v>0.4842150667074004</v>
       </c>
       <c r="J13">
-        <v>0.5746586476550658</v>
+        <v>0.5777267471531042</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N13">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O13">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P13">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q13">
-        <v>5.828754824</v>
+        <v>4.627233397791668</v>
       </c>
       <c r="R13">
-        <v>52.458793416</v>
+        <v>41.645100580125</v>
       </c>
       <c r="S13">
-        <v>0.001351326450624093</v>
+        <v>0.001195259712599062</v>
       </c>
       <c r="T13">
-        <v>0.001964024188322217</v>
+        <v>0.002122686406838214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H14">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I14">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J14">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N14">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O14">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P14">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q14">
-        <v>47.15919138812149</v>
+        <v>25.173928757457</v>
       </c>
       <c r="R14">
-        <v>282.955148328729</v>
+        <v>151.043572544742</v>
       </c>
       <c r="S14">
-        <v>0.01093328929369504</v>
+        <v>0.006502672388643151</v>
       </c>
       <c r="T14">
-        <v>0.01059366255569321</v>
+        <v>0.007698820120848009</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H15">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I15">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J15">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>2.735872</v>
       </c>
       <c r="O15">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P15">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q15">
-        <v>0.3548064240924444</v>
+        <v>0.1660935731768889</v>
       </c>
       <c r="R15">
-        <v>3.193257816832</v>
+        <v>1.494842158592</v>
       </c>
       <c r="S15">
-        <v>8.225758677535849E-05</v>
+        <v>4.290359691704871E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001195535616321321</v>
+        <v>7.619338376448237E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H16">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I16">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J16">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N16">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O16">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P16">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q16">
-        <v>0.2739057371262222</v>
+        <v>0.05465341313155557</v>
       </c>
       <c r="R16">
-        <v>2.465151634136</v>
+        <v>0.491880718184</v>
       </c>
       <c r="S16">
-        <v>6.350173900475483E-05</v>
+        <v>1.41175119680276E-05</v>
       </c>
       <c r="T16">
-        <v>9.229372469417959E-05</v>
+        <v>2.507158104387657E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H17">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I17">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J17">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N17">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O17">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P17">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q17">
-        <v>17.03877007560434</v>
+        <v>14.35613907085567</v>
       </c>
       <c r="R17">
-        <v>102.232620453626</v>
+        <v>86.13683442513401</v>
       </c>
       <c r="S17">
-        <v>0.003950233177498015</v>
+        <v>0.003708331347204646</v>
       </c>
       <c r="T17">
-        <v>0.003827524926359548</v>
+        <v>0.004390468146679574</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H18">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I18">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J18">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N18">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O18">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P18">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q18">
-        <v>34.34105719931422</v>
+        <v>0.3023260586817778</v>
       </c>
       <c r="R18">
-        <v>309.069514793828</v>
+        <v>2.720934528136</v>
       </c>
       <c r="S18">
-        <v>0.007961559601846829</v>
+        <v>7.809378238487943E-05</v>
       </c>
       <c r="T18">
-        <v>0.01157136799000313</v>
+        <v>0.0001386883608471213</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.3890603333333333</v>
+        <v>0.1821286666666667</v>
       </c>
       <c r="H19">
-        <v>1.167181</v>
+        <v>0.546386</v>
       </c>
       <c r="I19">
-        <v>0.02305267313447669</v>
+        <v>0.01037172068027931</v>
       </c>
       <c r="J19">
-        <v>0.02629426929239374</v>
+        <v>0.01237470880809906</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N19">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O19">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P19">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q19">
-        <v>0.2667024147413333</v>
+        <v>0.09911375259488892</v>
       </c>
       <c r="R19">
-        <v>2.400321732672</v>
+        <v>0.8920237733540001</v>
       </c>
       <c r="S19">
-        <v>6.18317356566996E-05</v>
+        <v>2.560205316155421E-05</v>
       </c>
       <c r="T19">
-        <v>8.986653401153976E-05</v>
+        <v>4.546721491600211E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H20">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I20">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J20">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N20">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O20">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P20">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q20">
-        <v>571.8639182553344</v>
+        <v>787.0411455737692</v>
       </c>
       <c r="R20">
-        <v>2287.455673021338</v>
+        <v>3148.164582295077</v>
       </c>
       <c r="S20">
-        <v>0.1325797468292976</v>
+        <v>0.2033004373436391</v>
       </c>
       <c r="T20">
-        <v>0.08564089981830443</v>
+        <v>0.1604646422325246</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H21">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I21">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J21">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>2.735872</v>
       </c>
       <c r="O21">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P21">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q21">
-        <v>4.302469697450666</v>
+        <v>5.192772147925332</v>
       </c>
       <c r="R21">
-        <v>25.814818184704</v>
+        <v>31.15663288755199</v>
       </c>
       <c r="S21">
-        <v>0.0009974756668841697</v>
+        <v>0.001341343911479325</v>
       </c>
       <c r="T21">
-        <v>0.0009664905353395915</v>
+        <v>0.001588080234936883</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H22">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I22">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J22">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N22">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O22">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P22">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q22">
-        <v>3.321448130365333</v>
+        <v>1.708691769767333</v>
       </c>
       <c r="R22">
-        <v>19.928688782192</v>
+        <v>10.252150618604</v>
       </c>
       <c r="S22">
-        <v>0.0007700376578643711</v>
+        <v>0.0004413718215785657</v>
       </c>
       <c r="T22">
-        <v>0.0007461175574395282</v>
+        <v>0.0005225608884554979</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H23">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I23">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J23">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N23">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O23">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P23">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q23">
-        <v>206.616303860993</v>
+        <v>448.8322919002322</v>
       </c>
       <c r="R23">
-        <v>826.4652154439721</v>
+        <v>1795.329167600929</v>
       </c>
       <c r="S23">
-        <v>0.04790149611164099</v>
+        <v>0.1159377775233639</v>
       </c>
       <c r="T23">
-        <v>0.03094233718009641</v>
+        <v>0.0915094637011252</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H24">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I24">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J24">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N24">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O24">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P24">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q24">
-        <v>416.4280800619693</v>
+        <v>9.451963174052665</v>
       </c>
       <c r="R24">
-        <v>2498.568480371816</v>
+        <v>56.711779044316</v>
       </c>
       <c r="S24">
-        <v>0.09654382391472269</v>
+        <v>0.002441534674327606</v>
       </c>
       <c r="T24">
-        <v>0.09354483037219484</v>
+        <v>0.002890647898745464</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.717841</v>
+        <v>5.6940955</v>
       </c>
       <c r="H25">
-        <v>9.435682</v>
+        <v>11.388191</v>
       </c>
       <c r="I25">
-        <v>0.2795423669681891</v>
+        <v>0.3242628913597822</v>
       </c>
       <c r="J25">
-        <v>0.2125671712145694</v>
+        <v>0.257923057098854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N25">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O25">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P25">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q25">
-        <v>3.234098876864</v>
+        <v>3.098705892749833</v>
       </c>
       <c r="R25">
-        <v>19.404593261184</v>
+        <v>18.592235356499</v>
       </c>
       <c r="S25">
-        <v>0.0007497867877792886</v>
+        <v>0.000800426085393659</v>
       </c>
       <c r="T25">
-        <v>0.0007264957511946078</v>
+        <v>0.0009476621430664052</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H26">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I26">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J26">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N26">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O26">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P26">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q26">
-        <v>156.9715116427725</v>
+        <v>22.813582097322</v>
       </c>
       <c r="R26">
-        <v>941.8290698566349</v>
+        <v>136.881492583932</v>
       </c>
       <c r="S26">
-        <v>0.03639195026764883</v>
+        <v>0.005892971725613372</v>
       </c>
       <c r="T26">
-        <v>0.0352614872361754</v>
+        <v>0.006976966788604789</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H27">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I27">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J27">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>2.735872</v>
       </c>
       <c r="O27">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P27">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q27">
-        <v>1.180989306453333</v>
+        <v>0.1505203817813333</v>
       </c>
       <c r="R27">
-        <v>10.62890375808</v>
+        <v>1.354683436032</v>
       </c>
       <c r="S27">
-        <v>0.0002737981157044789</v>
+        <v>3.888088903276835E-05</v>
       </c>
       <c r="T27">
-        <v>0.0003979394628975778</v>
+        <v>6.904937376010005E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H28">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I28">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J28">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N28">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O28">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P28">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q28">
-        <v>0.9117076934266667</v>
+        <v>0.04952902422933334</v>
       </c>
       <c r="R28">
-        <v>8.20536924084</v>
+        <v>0.445761218064</v>
       </c>
       <c r="S28">
-        <v>0.0002113684240572436</v>
+        <v>1.279383211875977E-05</v>
       </c>
       <c r="T28">
-        <v>0.0003072038568506154</v>
+        <v>2.272083066433207E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H29">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I29">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J29">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N29">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O29">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P29">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q29">
-        <v>56.714320508365</v>
+        <v>13.010085173794</v>
       </c>
       <c r="R29">
-        <v>340.28592305019</v>
+        <v>78.06051104276401</v>
       </c>
       <c r="S29">
-        <v>0.01314853064612725</v>
+        <v>0.003360632440356202</v>
       </c>
       <c r="T29">
-        <v>0.01274009065584578</v>
+        <v>0.003978811034025892</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H30">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I30">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J30">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N30">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O30">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P30">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q30">
-        <v>114.3057694866467</v>
+        <v>0.2739794978506667</v>
       </c>
       <c r="R30">
-        <v>1028.75192537982</v>
+        <v>2.465815480656</v>
       </c>
       <c r="S30">
-        <v>0.02650041294072553</v>
+        <v>7.077158805417297E-05</v>
       </c>
       <c r="T30">
-        <v>0.03851582420522783</v>
+        <v>0.0001256847247250427</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>1.295005</v>
+        <v>0.165052</v>
       </c>
       <c r="H31">
-        <v>3.885015</v>
+        <v>0.495156</v>
       </c>
       <c r="I31">
-        <v>0.07673187013628475</v>
+        <v>0.009399252040067608</v>
       </c>
       <c r="J31">
-        <v>0.08752167025935914</v>
+        <v>0.01121443689000652</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N31">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O31">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P31">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q31">
-        <v>0.8877311075199998</v>
+        <v>0.08982069320933335</v>
       </c>
       <c r="R31">
-        <v>7.989579967679999</v>
+        <v>0.808386238884</v>
       </c>
       <c r="S31">
-        <v>0.0002058097420214284</v>
+        <v>2.320156489233351E-05</v>
       </c>
       <c r="T31">
-        <v>0.000299124842361932</v>
+        <v>4.120413822636001E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H32">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I32">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J32">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>121.2130545</v>
+        <v>138.2205735</v>
       </c>
       <c r="N32">
-        <v>242.426109</v>
+        <v>276.441147</v>
       </c>
       <c r="O32">
-        <v>0.4742742514031324</v>
+        <v>0.626961773180729</v>
       </c>
       <c r="P32">
-        <v>0.4028886461111008</v>
+        <v>0.6221415178520601</v>
       </c>
       <c r="Q32">
-        <v>54.32837790087549</v>
+        <v>25.314545154231</v>
       </c>
       <c r="R32">
-        <v>325.970267405253</v>
+        <v>151.887270925386</v>
       </c>
       <c r="S32">
-        <v>0.01259537865182892</v>
+        <v>0.006538994981334286</v>
       </c>
       <c r="T32">
-        <v>0.01220412152412396</v>
+        <v>0.007741824149151861</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H33">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I33">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J33">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>2.735872</v>
       </c>
       <c r="O33">
-        <v>0.00356824504887189</v>
+        <v>0.004136593940350246</v>
       </c>
       <c r="P33">
-        <v>0.004546753526507615</v>
+        <v>0.006157185994923365</v>
       </c>
       <c r="Q33">
-        <v>0.4087444445582222</v>
+        <v>0.1670213377706666</v>
       </c>
       <c r="R33">
-        <v>3.678700001023999</v>
+        <v>1.503192039936</v>
       </c>
       <c r="S33">
-        <v>9.476246576762491E-05</v>
+        <v>4.314324759951647E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001377282112895195</v>
+        <v>7.661898436048812E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H34">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I34">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J34">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M34">
-        <v>0.7040186666666667</v>
+        <v>0.3000813333333334</v>
       </c>
       <c r="N34">
-        <v>2.112056</v>
+        <v>0.900244</v>
       </c>
       <c r="O34">
-        <v>0.002754636680714657</v>
+        <v>0.001361154277406497</v>
       </c>
       <c r="P34">
-        <v>0.003510031926267592</v>
+        <v>0.002026034020894907</v>
       </c>
       <c r="Q34">
-        <v>0.3155451558391111</v>
+        <v>0.05495869587466667</v>
       </c>
       <c r="R34">
-        <v>2.839906402552</v>
+        <v>0.494628262872</v>
       </c>
       <c r="S34">
-        <v>7.315533562948371E-05</v>
+        <v>1.41963694909627E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001063243072129461</v>
+        <v>2.521162574733879E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H35">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I35">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J35">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>43.794673</v>
+        <v>78.82415950000001</v>
       </c>
       <c r="N35">
-        <v>87.58934600000001</v>
+        <v>157.648319</v>
       </c>
       <c r="O35">
-        <v>0.1713568380748955</v>
+        <v>0.357542539132936</v>
       </c>
       <c r="P35">
-        <v>0.1455649854269483</v>
+        <v>0.3547936533105391</v>
       </c>
       <c r="Q35">
-        <v>19.62902060841367</v>
+        <v>14.436329515787</v>
       </c>
       <c r="R35">
-        <v>117.774123650482</v>
+        <v>86.61797709472201</v>
       </c>
       <c r="S35">
-        <v>0.004550751498206233</v>
+        <v>0.003729045324633914</v>
       </c>
       <c r="T35">
-        <v>0.004409389018418562</v>
+        <v>0.004414992400199367</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H36">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I36">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J36">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>88.26666266666666</v>
+        <v>1.659958666666667</v>
       </c>
       <c r="N36">
-        <v>264.799988</v>
+        <v>4.979876</v>
       </c>
       <c r="O36">
-        <v>0.3453638350486923</v>
+        <v>0.007529491469372698</v>
       </c>
       <c r="P36">
-        <v>0.4400718598158738</v>
+        <v>0.01120740398807217</v>
       </c>
       <c r="Q36">
-        <v>39.56161838495511</v>
+        <v>0.3040147899653333</v>
       </c>
       <c r="R36">
-        <v>356.054565464596</v>
+        <v>2.736133109688</v>
       </c>
       <c r="S36">
-        <v>0.009171883698549307</v>
+        <v>7.852999821734704E-05</v>
       </c>
       <c r="T36">
-        <v>0.01333045869716355</v>
+        <v>0.0001394630455522664</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.4482056666666667</v>
+        <v>0.183146</v>
       </c>
       <c r="H37">
-        <v>1.344617</v>
+        <v>0.549438</v>
       </c>
       <c r="I37">
-        <v>0.02655716310671665</v>
+        <v>0.01042965498224936</v>
       </c>
       <c r="J37">
-        <v>0.03029154989083149</v>
+        <v>0.01244383139045351</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.6855039999999999</v>
+        <v>0.5441963333333334</v>
       </c>
       <c r="N37">
-        <v>2.056512</v>
+        <v>1.632589</v>
       </c>
       <c r="O37">
-        <v>0.002682193743693283</v>
+        <v>0.002468447999205544</v>
       </c>
       <c r="P37">
-        <v>0.00341772319330189</v>
+        <v>0.003674204833510465</v>
       </c>
       <c r="Q37">
-        <v>0.3072467773226666</v>
+        <v>0.09966738166466668</v>
       </c>
       <c r="R37">
-        <v>2.765220995904</v>
+        <v>0.8970064349820001</v>
       </c>
       <c r="S37">
-        <v>7.123145673507746E-05</v>
+        <v>2.574506097333757E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001035281326229561</v>
+        <v>4.572118544219355E-05</v>
       </c>
     </row>
   </sheetData>
